--- a/New Spreadsheet 1.xlsx
+++ b/New Spreadsheet 1.xlsx
@@ -57,6 +57,15 @@
   </si>
   <si>
     <t>Такси</t>
+  </si>
+  <si>
+    <t>Декабрь 1-3</t>
+  </si>
+  <si>
+    <t>Стас</t>
+  </si>
+  <si>
+    <t>Налоги</t>
   </si>
 </sst>
 </file>
@@ -162,7 +171,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
       <alignment vertical="bottom"/>
@@ -194,6 +203,13 @@
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="7" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="15" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment/>
+      <protection/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -512,10 +528,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
-      <selection activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection activeCell="I15" activeCellId="0" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="1" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="26.6328125" customWidth="1" bestFit="1"/>
   </cols>
@@ -524,7 +540,9 @@
       <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="1">
+        <v>7182</v>
+      </c>
     </row>
     <row r="2">
       <c r="B2" s="1"/>
@@ -533,8 +551,8 @@
       <c r="B3" s="1"/>
     </row>
     <row r="4">
-      <c r="A4" s="7" t="s">
-        <v>2</v>
+      <c r="A4" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="B4" s="1"/>
     </row>
@@ -542,90 +560,110 @@
       <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1"/>
+      <c r="B5" s="1">
+        <v>9723</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7">
+      <c r="B6" s="1">
+        <f>SUM(B7:B9)</f>
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="7" hidden="1" outlineLevel="1">
       <c r="A7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="8" t="s">
+      <c r="B7" s="1">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="8" hidden="1" outlineLevel="1">
+      <c r="A8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="9" hidden="1" outlineLevel="1">
+      <c r="A9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="10" collapsed="1">
+      <c r="A10" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9">
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10">
-      <c r="B10" s="1"/>
+      <c r="B10" s="1">
+        <f>B5-B6</f>
+        <v>7182</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="7" t="s">
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12">
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="8" t="s">
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="8" t="s">
         <v>3</v>
-      </c>
-      <c r="B12" s="1"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="10" t="s">
-        <v>9</v>
       </c>
       <c r="B14" s="1"/>
     </row>
     <row r="15">
       <c r="A15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="8" t="s">
         <v>4</v>
-      </c>
-      <c r="B15" s="1"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="1"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="9" t="s">
-        <v>10</v>
       </c>
       <c r="B17" s="1"/>
     </row>
     <row r="18">
       <c r="A18" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="1"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="8" t="s">
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="1"/>
-    </row>
-    <row r="20">
-      <c r="B20" s="1"/>
-    </row>
-    <row r="21">
       <c r="B21" s="1"/>
     </row>
     <row r="22">
@@ -1806,6 +1844,12 @@
     </row>
     <row r="414">
       <c r="B414" s="1"/>
+    </row>
+    <row r="415">
+      <c r="B415" s="1"/>
+    </row>
+    <row r="416">
+      <c r="B416" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/New Spreadsheet 1.xlsx
+++ b/New Spreadsheet 1.xlsx
@@ -66,6 +66,27 @@
   </si>
   <si>
     <t>Налоги</t>
+  </si>
+  <si>
+    <t>Декабрь 1-2</t>
+  </si>
+  <si>
+    <t>707 + 358 + 935 + 358 + 543 + 437 + 598 + 798 + 671</t>
+  </si>
+  <si>
+    <t>еда стасу</t>
+  </si>
+  <si>
+    <t>кешбек</t>
+  </si>
+  <si>
+    <t>подписка тбанк</t>
+  </si>
+  <si>
+    <t>еда миле</t>
+  </si>
+  <si>
+    <t>стрижка</t>
   </si>
 </sst>
 </file>
@@ -171,7 +192,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
       <alignment vertical="bottom"/>
@@ -210,6 +231,9 @@
     <xf numFmtId="49" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
       <alignment/>
       <protection/>
+    </xf>
+    <xf numFmtId="15" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -528,7 +552,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
-      <selection activeCell="I15" activeCellId="0" sqref="I15"/>
+      <selection activeCell="A26" activeCellId="0" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="1" outlineLevelCol="0"/>
@@ -541,7 +565,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="1">
-        <v>7182</v>
+        <v>24986</v>
       </c>
     </row>
     <row r="2">
@@ -552,7 +576,7 @@
     </row>
     <row r="4">
       <c r="A4" s="12" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1"/>
     </row>
@@ -570,7 +594,7 @@
       </c>
       <c r="B6" s="1">
         <f>SUM(B7:B9)</f>
-        <v>2541</v>
+        <v>2877</v>
       </c>
     </row>
     <row r="7" hidden="1" outlineLevel="1">
@@ -578,7 +602,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="1">
-        <v>374</v>
+        <v>710</v>
       </c>
     </row>
     <row r="8" hidden="1" outlineLevel="1">
@@ -603,7 +627,7 @@
       </c>
       <c r="B10" s="1">
         <f>B5-B6</f>
-        <v>7182</v>
+        <v>6846</v>
       </c>
     </row>
     <row r="11">
@@ -613,8 +637,8 @@
       <c r="B12" s="1"/>
     </row>
     <row r="13">
-      <c r="A13" s="7" t="s">
-        <v>2</v>
+      <c r="A13" s="13">
+        <v>42707</v>
       </c>
       <c r="B13" s="1"/>
     </row>
@@ -622,64 +646,107 @@
       <c r="A14" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="1"/>
+      <c r="B14" s="1">
+        <v>6846</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="1"/>
-    </row>
-    <row r="16">
+      <c r="B15" s="1">
+        <f>B16+B17</f>
+        <v>64835</v>
+      </c>
+    </row>
+    <row r="16" hidden="1" outlineLevel="1">
       <c r="A16" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="1"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="8" t="s">
+      <c r="B16" s="1">
+        <v>64254</v>
+      </c>
+    </row>
+    <row r="17" hidden="1" outlineLevel="1">
+      <c r="A17" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="1">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="18" collapsed="1">
+      <c r="A18" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="1"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="9" t="s">
+      <c r="B18" s="1">
+        <f>SUM(B19:B25)</f>
+        <v>46695</v>
+      </c>
+    </row>
+    <row r="19" hidden="1" outlineLevel="1">
+      <c r="A19" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="1"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="9" t="s">
+      <c r="B19" s="1">
+        <f>707 + 358 + 935 + 358 + 543 + 437 + 598 + 798 + 671</f>
+        <v>5405</v>
+      </c>
+    </row>
+    <row r="20" hidden="1" outlineLevel="1">
+      <c r="A20" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="1"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="9" t="s">
+      <c r="B20" s="1">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="21" hidden="1" outlineLevel="1">
+      <c r="A21" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="1"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="8" t="s">
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" hidden="1" outlineLevel="1">
+      <c r="A22" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="1">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="23" hidden="1" outlineLevel="1">
+      <c r="A23" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="24" hidden="1" outlineLevel="1">
+      <c r="A24" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="25" hidden="1" outlineLevel="1">
+      <c r="A25" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="26" collapsed="1">
+      <c r="A26" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="1"/>
-    </row>
-    <row r="22">
-      <c r="B22" s="1"/>
-    </row>
-    <row r="23">
-      <c r="B23" s="1"/>
-    </row>
-    <row r="24">
-      <c r="B24" s="1"/>
-    </row>
-    <row r="25">
-      <c r="B25" s="1"/>
-    </row>
-    <row r="26">
-      <c r="B26" s="1"/>
+      <c r="B26" s="1">
+        <f>B14+B15-B18</f>
+        <v>24986</v>
+      </c>
     </row>
     <row r="27">
       <c r="B27" s="1"/>
@@ -1850,6 +1917,21 @@
     </row>
     <row r="416">
       <c r="B416" s="1"/>
+    </row>
+    <row r="417">
+      <c r="B417" s="1"/>
+    </row>
+    <row r="418">
+      <c r="B418" s="1"/>
+    </row>
+    <row r="419">
+      <c r="B419" s="1"/>
+    </row>
+    <row r="420">
+      <c r="B420" s="1"/>
+    </row>
+    <row r="421">
+      <c r="B421" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
